--- a/dfs/df_home.xlsx
+++ b/dfs/df_home.xlsx
@@ -581,10 +581,10 @@
         <v>45.5</v>
       </c>
       <c r="E2" t="n">
-        <v>454.6666666666667</v>
+        <v>455</v>
       </c>
       <c r="F2" t="n">
-        <v>349.8333333333333</v>
+        <v>350.1666666666667</v>
       </c>
       <c r="G2" t="n">
         <v>11.33333333333333</v>
@@ -623,16 +623,16 @@
         <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>560.3333333333334</v>
+        <v>561.1666666666666</v>
       </c>
       <c r="T2" t="n">
-        <v>14.33333333333333</v>
+        <v>14.5</v>
       </c>
       <c r="U2" t="n">
         <v>9.333333333333334</v>
       </c>
       <c r="V2" t="n">
-        <v>17</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="W2" t="n">
         <v>2.166666666666667</v>
@@ -644,7 +644,7 @@
         <v>21.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>67.83333333333333</v>
+        <v>67.66666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -705,7 +705,7 @@
         <v>19</v>
       </c>
       <c r="S3" t="n">
-        <v>532.6666666666666</v>
+        <v>532.3333333333334</v>
       </c>
       <c r="T3" t="n">
         <v>15.5</v>
@@ -736,79 +736,79 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>45.4</v>
+        <v>44.83333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>403.2</v>
+        <v>403.6666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>293.8</v>
+        <v>294</v>
       </c>
       <c r="G4" t="n">
-        <v>15.2</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>12.6</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>14.8</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>1.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>14.2</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>21.2</v>
+        <v>22.5</v>
       </c>
       <c r="S4" t="n">
-        <v>512</v>
+        <v>515.6666666666666</v>
       </c>
       <c r="T4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U4" t="n">
-        <v>10.2</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="X4" t="n">
-        <v>8.800000000000001</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.6</v>
+        <v>22.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>74.40000000000001</v>
+        <v>72.33333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -818,79 +818,79 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>1.2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>45.5</v>
       </c>
       <c r="E5" t="n">
-        <v>370.2</v>
+        <v>391</v>
       </c>
       <c r="F5" t="n">
-        <v>272.8</v>
+        <v>292.6666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>13.4</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>32</v>
+        <v>30.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="L5" t="n">
-        <v>23.4</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>2.4</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>2.8</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="P5" t="n">
-        <v>12.6</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R5" t="n">
-        <v>17</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="S5" t="n">
-        <v>489.8</v>
+        <v>507.3333333333333</v>
       </c>
       <c r="T5" t="n">
-        <v>20.2</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="U5" t="n">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="V5" t="n">
-        <v>10.2</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="Z5" t="n">
-        <v>59.8</v>
+        <v>58.33333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -951,7 +951,7 @@
         <v>26</v>
       </c>
       <c r="S6" t="n">
-        <v>622</v>
+        <v>620.6666666666666</v>
       </c>
       <c r="T6" t="n">
         <v>17</v>
@@ -982,79 +982,79 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.2</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>2.2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="E7" t="n">
-        <v>349.8</v>
+        <v>339.5</v>
       </c>
       <c r="F7" t="n">
-        <v>234.4</v>
+        <v>228.3333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>12.6</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>8.6</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>33.4</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="L7" t="n">
-        <v>18.6</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>2.6</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O7" t="n">
-        <v>2.6</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="P7" t="n">
-        <v>13.6</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="R7" t="n">
-        <v>19</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="S7" t="n">
-        <v>456</v>
+        <v>441.5</v>
       </c>
       <c r="T7" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="U7" t="n">
-        <v>8.6</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="V7" t="n">
-        <v>17</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="W7" t="n">
-        <v>2.2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="Z7" t="n">
-        <v>70.40000000000001</v>
+        <v>67.33333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -1064,37 +1064,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>56.6</v>
+        <v>55.66666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>553</v>
+        <v>548.8333333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4</v>
+        <v>460.5</v>
       </c>
       <c r="G8" t="n">
-        <v>16.8</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>5.2</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>11.6</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>30.2</v>
+        <v>33</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>13.6</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1106,37 +1106,37 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>10.4</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="S8" t="n">
-        <v>647.6</v>
+        <v>645.3333333333334</v>
       </c>
       <c r="T8" t="n">
-        <v>13</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="U8" t="n">
-        <v>8.6</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="V8" t="n">
-        <v>11.4</v>
+        <v>12.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.8</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.2</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>75.40000000000001</v>
+        <v>73.66666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -1155,10 +1155,10 @@
         <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>504.6666666666667</v>
+        <v>504.5</v>
       </c>
       <c r="F9" t="n">
-        <v>418.5</v>
+        <v>418.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>17</v>
@@ -1176,7 +1176,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="L9" t="n">
-        <v>14.83333333333333</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="M9" t="n">
         <v>1.666666666666667</v>
@@ -1197,13 +1197,13 @@
         <v>20.5</v>
       </c>
       <c r="S9" t="n">
-        <v>608.3333333333334</v>
+        <v>609</v>
       </c>
       <c r="T9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U9" t="n">
-        <v>9.666666666666666</v>
+        <v>9.5</v>
       </c>
       <c r="V9" t="n">
         <v>9.666666666666666</v>
@@ -1228,79 +1228,79 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>526.1428571428571</v>
+      </c>
+      <c r="F10" t="n">
+        <v>438.4285714285714</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10.85714285714286</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.857142857142857</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="L10" t="n">
+        <v>16</v>
+      </c>
+      <c r="M10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>496.3333333333333</v>
-      </c>
-      <c r="F10" t="n">
-        <v>410</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>47.33333333333334</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="L10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.833333333333333</v>
-      </c>
       <c r="N10" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="P10" t="n">
-        <v>7.333333333333333</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="Q10" t="n">
         <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>11.66666666666667</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="T10" t="n">
-        <v>15.16666666666667</v>
+        <v>15.28571428571429</v>
       </c>
       <c r="U10" t="n">
-        <v>7.166666666666667</v>
+        <v>7</v>
       </c>
       <c r="V10" t="n">
-        <v>8.666666666666666</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="W10" t="n">
-        <v>1.333333333333333</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="X10" t="n">
-        <v>5.333333333333333</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="Z10" t="n">
-        <v>57.33333333333334</v>
+        <v>58.14285714285715</v>
       </c>
     </row>
     <row r="11">
@@ -1310,79 +1310,79 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11" t="n">
-        <v>1.2</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>43.8</v>
+        <v>42.5</v>
       </c>
       <c r="E11" t="n">
-        <v>373.8</v>
+        <v>369</v>
       </c>
       <c r="F11" t="n">
-        <v>270.4</v>
+        <v>263.5</v>
       </c>
       <c r="G11" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>5.8</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>29.8</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M11" t="n">
-        <v>3.2</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.2</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R11" t="n">
-        <v>19.2</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="S11" t="n">
-        <v>483.2</v>
+        <v>478</v>
       </c>
       <c r="T11" t="n">
-        <v>14.2</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="U11" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
-        <v>12.4</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.2</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="Z11" t="n">
-        <v>74.2</v>
+        <v>72.66666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -1443,7 +1443,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="S12" t="n">
-        <v>564</v>
+        <v>564.5</v>
       </c>
       <c r="T12" t="n">
         <v>17.33333333333333</v>
@@ -1452,7 +1452,7 @@
         <v>8.833333333333334</v>
       </c>
       <c r="V12" t="n">
-        <v>13.5</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>20.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>75</v>
+        <v>75.16666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -1477,76 +1477,76 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1.2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>55.4</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>527.6</v>
+        <v>533.8333333333334</v>
       </c>
       <c r="F13" t="n">
-        <v>433.4</v>
+        <v>440.3333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>11.8</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L13" t="n">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="P13" t="n">
-        <v>11.4</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R13" t="n">
-        <v>13.8</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="S13" t="n">
-        <v>627.8</v>
+        <v>630.3333333333334</v>
       </c>
       <c r="T13" t="n">
-        <v>14.4</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="U13" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="V13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W13" t="n">
-        <v>2.8</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="X13" t="n">
-        <v>5.4</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.6</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>62</v>
+        <v>62.16666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -1556,79 +1556,79 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.4</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14" t="n">
-        <v>57.2</v>
+        <v>58.83333333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>566.6</v>
+        <v>591.3333333333334</v>
       </c>
       <c r="F14" t="n">
-        <v>481.4</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="G14" t="n">
-        <v>22.8</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>15.6</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>33</v>
+        <v>32.66666666666666</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>14.6</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P14" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.2</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="R14" t="n">
-        <v>17.6</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="S14" t="n">
-        <v>675.4</v>
+        <v>700.5</v>
       </c>
       <c r="T14" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="U14" t="n">
-        <v>7</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="V14" t="n">
-        <v>14.4</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="W14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.6</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
-        <v>52.8</v>
+        <v>52.83333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -1647,10 +1647,10 @@
         <v>50.2</v>
       </c>
       <c r="E15" t="n">
-        <v>472</v>
+        <v>472.2</v>
       </c>
       <c r="F15" t="n">
-        <v>382.4</v>
+        <v>382.6</v>
       </c>
       <c r="G15" t="n">
         <v>17.6</v>
@@ -1689,7 +1689,7 @@
         <v>16.8</v>
       </c>
       <c r="S15" t="n">
-        <v>582.2</v>
+        <v>581</v>
       </c>
       <c r="T15" t="n">
         <v>18.8</v>
@@ -1710,7 +1710,7 @@
         <v>19.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>71.40000000000001</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="16">
@@ -1853,7 +1853,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="S17" t="n">
-        <v>536.3333333333334</v>
+        <v>536.5</v>
       </c>
       <c r="T17" t="n">
         <v>11.5</v>
@@ -1935,7 +1935,7 @@
         <v>11.66666666666667</v>
       </c>
       <c r="S18" t="n">
-        <v>520.1666666666666</v>
+        <v>520</v>
       </c>
       <c r="T18" t="n">
         <v>10.16666666666667</v>
@@ -1966,79 +1966,79 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.8</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="C19" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="E19" t="n">
-        <v>429.6</v>
+        <v>418.6666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>312.2</v>
+        <v>301</v>
       </c>
       <c r="G19" t="n">
-        <v>10.2</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>6.8</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="J19" t="n">
-        <v>32.4</v>
+        <v>37</v>
       </c>
       <c r="K19" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>25.8</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="M19" t="n">
-        <v>2.8</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O19" t="n">
-        <v>2.8</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="P19" t="n">
-        <v>14.6</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.8</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="R19" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="S19" t="n">
-        <v>551.2</v>
+        <v>538.1666666666666</v>
       </c>
       <c r="T19" t="n">
-        <v>18.8</v>
+        <v>17</v>
       </c>
       <c r="U19" t="n">
-        <v>10.2</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="V19" t="n">
-        <v>12.2</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="W19" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="X19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>74.2</v>
+        <v>74.16666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -2048,79 +2048,79 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>57.8</v>
+        <v>55.5</v>
       </c>
       <c r="E20" t="n">
-        <v>542</v>
+        <v>512.1666666666666</v>
       </c>
       <c r="F20" t="n">
-        <v>449</v>
+        <v>417.6666666666667</v>
       </c>
       <c r="G20" t="n">
-        <v>14</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>10.6</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="J20" t="n">
-        <v>22.8</v>
+        <v>28.5</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L20" t="n">
-        <v>13</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P20" t="n">
-        <v>13.2</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.6</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="R20" t="n">
-        <v>18.6</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="S20" t="n">
-        <v>640.2</v>
+        <v>611</v>
       </c>
       <c r="T20" t="n">
-        <v>11.4</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="U20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="V20" t="n">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="W20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X20" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.2</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="Z20" t="n">
-        <v>69.2</v>
+        <v>69.83333333333333</v>
       </c>
     </row>
     <row r="21">

--- a/dfs/df_home.xlsx
+++ b/dfs/df_home.xlsx
@@ -572,79 +572,79 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.333333333333333</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>45.5</v>
+        <v>45.71428571428572</v>
       </c>
       <c r="E2" t="n">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F2" t="n">
-        <v>350.1666666666667</v>
+        <v>357.1428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>11.33333333333333</v>
+        <v>11.85714285714286</v>
       </c>
       <c r="H2" t="n">
-        <v>3.333333333333333</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="J2" t="n">
-        <v>27.66666666666667</v>
+        <v>26.57142857142857</v>
       </c>
       <c r="K2" t="n">
-        <v>4.333333333333333</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="L2" t="n">
-        <v>16</v>
+        <v>14.71428571428571</v>
       </c>
       <c r="M2" t="n">
-        <v>2.5</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="P2" t="n">
-        <v>12.5</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.833333333333333</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>15.14285714285714</v>
       </c>
       <c r="S2" t="n">
-        <v>561.1666666666666</v>
+        <v>569.1428571428571</v>
       </c>
       <c r="T2" t="n">
-        <v>14.5</v>
+        <v>15.57142857142857</v>
       </c>
       <c r="U2" t="n">
-        <v>9.333333333333334</v>
+        <v>9.571428571428571</v>
       </c>
       <c r="V2" t="n">
-        <v>17.16666666666667</v>
+        <v>16.28571428571428</v>
       </c>
       <c r="W2" t="n">
-        <v>2.166666666666667</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="X2" t="n">
         <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.5</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="Z2" t="n">
-        <v>67.66666666666667</v>
+        <v>67.85714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -654,79 +654,79 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.166666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D3" t="n">
-        <v>50.66666666666666</v>
+        <v>51.42857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>419.8333333333333</v>
+        <v>437.8571428571428</v>
       </c>
       <c r="F3" t="n">
-        <v>313.3333333333333</v>
+        <v>327.2857142857143</v>
       </c>
       <c r="G3" t="n">
-        <v>12.16666666666667</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="H3" t="n">
-        <v>3.666666666666667</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="J3" t="n">
-        <v>31.83333333333333</v>
+        <v>35.28571428571428</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>21.16666666666667</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="M3" t="n">
-        <v>2.5</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O3" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="P3" t="n">
-        <v>11.33333333333333</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S3" t="n">
-        <v>532.3333333333334</v>
+        <v>544.5714285714286</v>
       </c>
       <c r="T3" t="n">
-        <v>15.5</v>
+        <v>15.28571428571429</v>
       </c>
       <c r="U3" t="n">
-        <v>8.333333333333334</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="W3" t="n">
-        <v>2.5</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="X3" t="n">
-        <v>7.833333333333333</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="Y3" t="n">
-        <v>24.66666666666667</v>
+        <v>24.85714285714286</v>
       </c>
       <c r="Z3" t="n">
-        <v>67.66666666666667</v>
+        <v>68.42857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -818,79 +818,79 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C5" t="n">
-        <v>1.333333333333333</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5</v>
+        <v>45.71428571428572</v>
       </c>
       <c r="E5" t="n">
-        <v>391</v>
+        <v>401.8571428571428</v>
       </c>
       <c r="F5" t="n">
-        <v>292.6666666666667</v>
+        <v>304.5714285714286</v>
       </c>
       <c r="G5" t="n">
-        <v>13.33333333333333</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="I5" t="n">
-        <v>9.833333333333334</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="J5" t="n">
-        <v>30.5</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
-        <v>4.333333333333333</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>21.33333333333333</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="M5" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="O5" t="n">
-        <v>2.666666666666667</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="P5" t="n">
-        <v>12.16666666666667</v>
+        <v>12</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.5</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="R5" t="n">
-        <v>17.66666666666667</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="S5" t="n">
-        <v>507.3333333333333</v>
+        <v>518.7142857142857</v>
       </c>
       <c r="T5" t="n">
-        <v>19.83333333333333</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="U5" t="n">
-        <v>10.5</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="V5" t="n">
-        <v>9.166666666666666</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="W5" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.833333333333333</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.66666666666667</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="Z5" t="n">
-        <v>58.33333333333334</v>
+        <v>60.28571428571428</v>
       </c>
     </row>
     <row r="6">
@@ -1146,79 +1146,79 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.5</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>49.57142857142857</v>
       </c>
       <c r="E9" t="n">
-        <v>504.5</v>
+        <v>503.5714285714286</v>
       </c>
       <c r="F9" t="n">
-        <v>418.6666666666667</v>
+        <v>417.1428571428572</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="H9" t="n">
-        <v>4.666666666666667</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="I9" t="n">
-        <v>12.33333333333333</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="J9" t="n">
-        <v>26.5</v>
+        <v>28.14285714285714</v>
       </c>
       <c r="K9" t="n">
-        <v>3.333333333333333</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="L9" t="n">
-        <v>15.16666666666667</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="M9" t="n">
-        <v>1.666666666666667</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O9" t="n">
-        <v>1.833333333333333</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="P9" t="n">
-        <v>11.83333333333333</v>
+        <v>12.42857142857143</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="R9" t="n">
-        <v>20.5</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="S9" t="n">
-        <v>609</v>
+        <v>607.7142857142857</v>
       </c>
       <c r="T9" t="n">
-        <v>14</v>
+        <v>13.71428571428571</v>
       </c>
       <c r="U9" t="n">
-        <v>9.5</v>
+        <v>9.571428571428571</v>
       </c>
       <c r="V9" t="n">
-        <v>9.666666666666666</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="W9" t="n">
-        <v>2.333333333333333</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.16666666666667</v>
+        <v>15.85714285714286</v>
       </c>
       <c r="Z9" t="n">
-        <v>67.5</v>
+        <v>68.71428571428571</v>
       </c>
     </row>
     <row r="10">
@@ -1392,79 +1392,79 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.666666666666667</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="C12" t="n">
-        <v>1.166666666666667</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>50.28571428571428</v>
       </c>
       <c r="E12" t="n">
-        <v>465.5</v>
+        <v>466.2857142857143</v>
       </c>
       <c r="F12" t="n">
-        <v>374.3333333333333</v>
+        <v>371.7142857142857</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="H12" t="n">
-        <v>5.166666666666667</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="I12" t="n">
-        <v>12.83333333333333</v>
+        <v>12.85714285714286</v>
       </c>
       <c r="J12" t="n">
-        <v>31.16666666666667</v>
+        <v>32.85714285714285</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="M12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>13.66666666666667</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>16.33333333333333</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="S12" t="n">
-        <v>564.5</v>
+        <v>570.5714285714286</v>
       </c>
       <c r="T12" t="n">
-        <v>17.33333333333333</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="U12" t="n">
-        <v>8.833333333333334</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="V12" t="n">
-        <v>13.66666666666667</v>
+        <v>15.14285714285714</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X12" t="n">
-        <v>2.166666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.5</v>
+        <v>20.42857142857143</v>
       </c>
       <c r="Z12" t="n">
-        <v>75.16666666666667</v>
+        <v>75.85714285714286</v>
       </c>
     </row>
     <row r="13">
@@ -1474,79 +1474,79 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="C13" t="n">
-        <v>1.333333333333333</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D13" t="n">
-        <v>55.33333333333334</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>533.8333333333334</v>
+        <v>554.7142857142857</v>
       </c>
       <c r="F13" t="n">
-        <v>440.3333333333333</v>
+        <v>459.5714285714286</v>
       </c>
       <c r="G13" t="n">
-        <v>11.16666666666667</v>
+        <v>11.57142857142857</v>
       </c>
       <c r="H13" t="n">
-        <v>3.666666666666667</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>35.5</v>
+        <v>33.42857142857143</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="L13" t="n">
-        <v>14.5</v>
+        <v>14.14285714285714</v>
       </c>
       <c r="M13" t="n">
-        <v>2.333333333333333</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.333333333333333</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="P13" t="n">
-        <v>11.66666666666667</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="R13" t="n">
-        <v>14.66666666666667</v>
+        <v>15.57142857142857</v>
       </c>
       <c r="S13" t="n">
-        <v>630.3333333333334</v>
+        <v>652</v>
       </c>
       <c r="T13" t="n">
-        <v>13.83333333333333</v>
+        <v>15.14285714285714</v>
       </c>
       <c r="U13" t="n">
-        <v>10.5</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="V13" t="n">
-        <v>12</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="W13" t="n">
-        <v>2.666666666666667</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="X13" t="n">
-        <v>5.166666666666667</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
-        <v>62.16666666666666</v>
+        <v>62.42857142857143</v>
       </c>
     </row>
     <row r="14">
@@ -1638,79 +1638,79 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>50.2</v>
+        <v>51.66666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>472.2</v>
+        <v>496</v>
       </c>
       <c r="F15" t="n">
-        <v>382.6</v>
+        <v>401.8333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>17.6</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>5.8</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="I15" t="n">
-        <v>11.8</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="J15" t="n">
-        <v>28.8</v>
+        <v>28.16666666666667</v>
       </c>
       <c r="K15" t="n">
-        <v>2.6</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>15.4</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="P15" t="n">
-        <v>10.4</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.2</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="R15" t="n">
-        <v>16.8</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="S15" t="n">
-        <v>581</v>
+        <v>602.6666666666666</v>
       </c>
       <c r="T15" t="n">
-        <v>18.8</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="U15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="V15" t="n">
-        <v>14.2</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="X15" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.2</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="Z15" t="n">
-        <v>71.2</v>
+        <v>74.83333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1720,79 +1720,79 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.666666666666667</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D16" t="n">
-        <v>48.16666666666666</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="E16" t="n">
-        <v>439.3333333333333</v>
+        <v>443</v>
       </c>
       <c r="F16" t="n">
-        <v>345</v>
+        <v>348.7142857142857</v>
       </c>
       <c r="G16" t="n">
-        <v>12.66666666666667</v>
+        <v>12.28571428571429</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="I16" t="n">
-        <v>8.666666666666666</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="J16" t="n">
-        <v>35.33333333333334</v>
+        <v>33.14285714285715</v>
       </c>
       <c r="K16" t="n">
-        <v>3.833333333333333</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="L16" t="n">
-        <v>18.16666666666667</v>
+        <v>19</v>
       </c>
       <c r="M16" t="n">
-        <v>2.166666666666667</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O16" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="P16" t="n">
-        <v>11.83333333333333</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.166666666666667</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="R16" t="n">
-        <v>16.5</v>
+        <v>15.42857142857143</v>
       </c>
       <c r="S16" t="n">
-        <v>545</v>
+        <v>548.2857142857143</v>
       </c>
       <c r="T16" t="n">
-        <v>18.5</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="U16" t="n">
-        <v>9</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="V16" t="n">
-        <v>13.16666666666667</v>
+        <v>14.14285714285714</v>
       </c>
       <c r="W16" t="n">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>8.833333333333334</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.66666666666667</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="Z16" t="n">
-        <v>65.33333333333333</v>
+        <v>64.42857142857143</v>
       </c>
     </row>
     <row r="17">
@@ -1802,79 +1802,79 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C17" t="n">
-        <v>1.5</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D17" t="n">
-        <v>52.16666666666666</v>
+        <v>51.71428571428572</v>
       </c>
       <c r="E17" t="n">
-        <v>457.5</v>
+        <v>458.5714285714286</v>
       </c>
       <c r="F17" t="n">
-        <v>360.6666666666667</v>
+        <v>359.4285714285714</v>
       </c>
       <c r="G17" t="n">
-        <v>8.666666666666666</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="H17" t="n">
-        <v>1.833333333333333</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="I17" t="n">
-        <v>6.833333333333333</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="J17" t="n">
-        <v>22.5</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="K17" t="n">
-        <v>4.166666666666667</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>11.33333333333333</v>
+        <v>11.57142857142857</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="P17" t="n">
-        <v>13.33333333333333</v>
+        <v>12.85714285714286</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.166666666666667</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="R17" t="n">
-        <v>15.66666666666667</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="S17" t="n">
-        <v>536.5</v>
+        <v>538.1428571428571</v>
       </c>
       <c r="T17" t="n">
-        <v>11.5</v>
+        <v>11.57142857142857</v>
       </c>
       <c r="U17" t="n">
-        <v>7.666666666666667</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="V17" t="n">
-        <v>12.33333333333333</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="W17" t="n">
-        <v>1.166666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="X17" t="n">
-        <v>6.666666666666667</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="Y17" t="n">
-        <v>20</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="Z17" t="n">
-        <v>59</v>
+        <v>60.42857142857143</v>
       </c>
     </row>
     <row r="18">
@@ -2130,79 +2130,79 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.833333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D21" t="n">
-        <v>46.16666666666666</v>
+        <v>47.71428571428572</v>
       </c>
       <c r="E21" t="n">
-        <v>415.8333333333333</v>
+        <v>429</v>
       </c>
       <c r="F21" t="n">
-        <v>320.5</v>
+        <v>329.5714285714286</v>
       </c>
       <c r="G21" t="n">
-        <v>13.16666666666667</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="H21" t="n">
-        <v>3.666666666666667</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="I21" t="n">
-        <v>9.5</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="J21" t="n">
-        <v>28.83333333333333</v>
+        <v>29.14285714285714</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="L21" t="n">
-        <v>17.83333333333333</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="M21" t="n">
-        <v>2.166666666666667</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O21" t="n">
-        <v>2.333333333333333</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="P21" t="n">
         <v>12</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.166666666666667</v>
+        <v>4.857142857142857</v>
       </c>
       <c r="R21" t="n">
-        <v>12.83333333333333</v>
+        <v>13</v>
       </c>
       <c r="S21" t="n">
-        <v>525.6666666666666</v>
+        <v>543</v>
       </c>
       <c r="T21" t="n">
-        <v>19.33333333333333</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="U21" t="n">
-        <v>7.833333333333333</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="V21" t="n">
-        <v>13.16666666666667</v>
+        <v>13.71428571428571</v>
       </c>
       <c r="W21" t="n">
-        <v>1.166666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="X21" t="n">
-        <v>8.833333333333334</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="Y21" t="n">
-        <v>23.66666666666667</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="Z21" t="n">
-        <v>63</v>
+        <v>64.85714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/dfs/df_home.xlsx
+++ b/dfs/df_home.xlsx
@@ -736,79 +736,79 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>1.833333333333333</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="D4" t="n">
-        <v>44.83333333333334</v>
+        <v>42.57142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>403.6666666666667</v>
+        <v>384.8571428571428</v>
       </c>
       <c r="F4" t="n">
-        <v>294</v>
+        <v>275.8571428571428</v>
       </c>
       <c r="G4" t="n">
-        <v>14.83333333333333</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="I4" t="n">
-        <v>12.33333333333333</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="J4" t="n">
-        <v>15.5</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="L4" t="n">
-        <v>15.33333333333333</v>
+        <v>17.57142857142857</v>
       </c>
       <c r="M4" t="n">
-        <v>1.333333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.333333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="P4" t="n">
-        <v>13.16666666666667</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="R4" t="n">
-        <v>22.5</v>
+        <v>20.71428571428572</v>
       </c>
       <c r="S4" t="n">
-        <v>515.6666666666666</v>
+        <v>497.4285714285714</v>
       </c>
       <c r="T4" t="n">
-        <v>19</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="U4" t="n">
-        <v>10.33333333333333</v>
+        <v>9.571428571428571</v>
       </c>
       <c r="V4" t="n">
-        <v>14.16666666666667</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="W4" t="n">
-        <v>2.833333333333333</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="X4" t="n">
-        <v>7.833333333333333</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.5</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="Z4" t="n">
-        <v>72.33333333333333</v>
+        <v>72.14285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -900,79 +900,79 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>1.833333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="D6" t="n">
-        <v>57.66666666666666</v>
+        <v>57.71428571428572</v>
       </c>
       <c r="E6" t="n">
-        <v>517.1666666666666</v>
+        <v>529.8571428571429</v>
       </c>
       <c r="F6" t="n">
-        <v>423</v>
+        <v>435.4285714285714</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="H6" t="n">
-        <v>5.666666666666667</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="I6" t="n">
-        <v>11.33333333333333</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="J6" t="n">
-        <v>36</v>
+        <v>36.42857142857143</v>
       </c>
       <c r="K6" t="n">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="P6" t="n">
-        <v>14.16666666666667</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.666666666666667</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="R6" t="n">
-        <v>26</v>
+        <v>24.14285714285714</v>
       </c>
       <c r="S6" t="n">
-        <v>620.6666666666666</v>
+        <v>632.2857142857143</v>
       </c>
       <c r="T6" t="n">
-        <v>17</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="U6" t="n">
-        <v>8.666666666666666</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="V6" t="n">
-        <v>15.66666666666667</v>
+        <v>15.85714285714286</v>
       </c>
       <c r="W6" t="n">
-        <v>1.333333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="X6" t="n">
-        <v>4.833333333333333</v>
+        <v>4.571428571428571</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.66666666666667</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="Z6" t="n">
-        <v>79.83333333333333</v>
+        <v>77.85714285714286</v>
       </c>
     </row>
     <row r="7">
@@ -982,79 +982,79 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.333333333333333</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="D7" t="n">
-        <v>40.5</v>
+        <v>40.85714285714285</v>
       </c>
       <c r="E7" t="n">
-        <v>339.5</v>
+        <v>343</v>
       </c>
       <c r="F7" t="n">
-        <v>228.3333333333333</v>
+        <v>233.8571428571429</v>
       </c>
       <c r="G7" t="n">
-        <v>11.66666666666667</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="H7" t="n">
-        <v>3.833333333333333</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="I7" t="n">
-        <v>7.833333333333333</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>31.85714285714286</v>
       </c>
       <c r="K7" t="n">
-        <v>6.333333333333333</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="L7" t="n">
-        <v>17.83333333333333</v>
+        <v>17.42857142857143</v>
       </c>
       <c r="M7" t="n">
-        <v>2.666666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O7" t="n">
-        <v>2.833333333333333</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="P7" t="n">
-        <v>12.83333333333333</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.5</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="R7" t="n">
-        <v>17.33333333333333</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="S7" t="n">
-        <v>441.5</v>
+        <v>445.2857142857143</v>
       </c>
       <c r="T7" t="n">
-        <v>14.5</v>
+        <v>14.57142857142857</v>
       </c>
       <c r="U7" t="n">
-        <v>8.666666666666666</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="V7" t="n">
-        <v>15.66666666666667</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="W7" t="n">
-        <v>1.833333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="X7" t="n">
-        <v>8.333333333333334</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.33333333333333</v>
+        <v>17.28571428571428</v>
       </c>
       <c r="Z7" t="n">
-        <v>67.33333333333333</v>
+        <v>66.57142857142857</v>
       </c>
     </row>
     <row r="8">
@@ -1064,37 +1064,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.166666666666667</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D8" t="n">
-        <v>55.66666666666666</v>
+        <v>55.85714285714285</v>
       </c>
       <c r="E8" t="n">
-        <v>548.8333333333334</v>
+        <v>552.7142857142857</v>
       </c>
       <c r="F8" t="n">
-        <v>460.5</v>
+        <v>464.8571428571428</v>
       </c>
       <c r="G8" t="n">
-        <v>16.83333333333333</v>
+        <v>16.14285714285714</v>
       </c>
       <c r="H8" t="n">
-        <v>5.666666666666667</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="I8" t="n">
-        <v>11.16666666666667</v>
+        <v>10.42857142857143</v>
       </c>
       <c r="J8" t="n">
-        <v>33</v>
+        <v>35.42857142857143</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166666666666667</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="L8" t="n">
-        <v>15.33333333333333</v>
+        <v>15.28571428571429</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1106,37 +1106,37 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>9.333333333333334</v>
+        <v>9.428571428571429</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="R8" t="n">
-        <v>20.5</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="S8" t="n">
-        <v>645.3333333333334</v>
+        <v>646.7142857142857</v>
       </c>
       <c r="T8" t="n">
-        <v>13.16666666666667</v>
+        <v>12.42857142857143</v>
       </c>
       <c r="U8" t="n">
-        <v>8.833333333333334</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5</v>
+        <v>11.57142857142857</v>
       </c>
       <c r="W8" t="n">
-        <v>1.666666666666667</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="X8" t="n">
-        <v>6.333333333333333</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>16.28571428571428</v>
       </c>
       <c r="Z8" t="n">
-        <v>73.66666666666667</v>
+        <v>71.42857142857143</v>
       </c>
     </row>
     <row r="9">
@@ -1179,13 +1179,13 @@
         <v>16.42857142857143</v>
       </c>
       <c r="M9" t="n">
-        <v>1.714285714285714</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="N9" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="O9" t="n">
-        <v>1.857142857142857</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="P9" t="n">
         <v>12.42857142857143</v>
@@ -1228,79 +1228,79 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.857142857142857</v>
+        <v>1.75</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>51.375</v>
       </c>
       <c r="E10" t="n">
-        <v>526.1428571428571</v>
+        <v>526.25</v>
       </c>
       <c r="F10" t="n">
-        <v>438.4285714285714</v>
+        <v>442.375</v>
       </c>
       <c r="G10" t="n">
-        <v>10.85714285714286</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>4.857142857142857</v>
+        <v>4.75</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J10" t="n">
-        <v>45</v>
+        <v>43.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.714285714285714</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>16</v>
+        <v>15.75</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="O10" t="n">
-        <v>2.142857142857143</v>
+        <v>2.125</v>
       </c>
       <c r="P10" t="n">
-        <v>7.714285714285714</v>
+        <v>8.625</v>
       </c>
       <c r="Q10" t="n">
         <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S10" t="n">
-        <v>621</v>
+        <v>620.125</v>
       </c>
       <c r="T10" t="n">
-        <v>15.28571428571429</v>
+        <v>14.5</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>7.125</v>
       </c>
       <c r="V10" t="n">
-        <v>8.142857142857142</v>
+        <v>8.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.571428571428571</v>
+        <v>1.375</v>
       </c>
       <c r="X10" t="n">
-        <v>5.428571428571429</v>
+        <v>5.875</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.85714285714286</v>
+        <v>18.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>58.14285714285715</v>
+        <v>57.125</v>
       </c>
     </row>
     <row r="11">
@@ -1310,79 +1310,79 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.166666666666667</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="D11" t="n">
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>369</v>
+        <v>369.4285714285714</v>
       </c>
       <c r="F11" t="n">
-        <v>263.5</v>
+        <v>259.8571428571428</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.333333333333333</v>
+        <v>2.428571428571428</v>
       </c>
       <c r="I11" t="n">
-        <v>5.666666666666667</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="J11" t="n">
-        <v>24.83333333333333</v>
+        <v>24.14285714285714</v>
       </c>
       <c r="K11" t="n">
-        <v>4.333333333333333</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="L11" t="n">
-        <v>24</v>
+        <v>24.28571428571428</v>
       </c>
       <c r="M11" t="n">
-        <v>3.166666666666667</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.166666666666667</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="P11" t="n">
-        <v>15.16666666666667</v>
+        <v>14.57142857142857</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.5</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="R11" t="n">
-        <v>18.83333333333333</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="S11" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="T11" t="n">
-        <v>14.83333333333333</v>
+        <v>16</v>
       </c>
       <c r="U11" t="n">
-        <v>8</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="V11" t="n">
-        <v>13.83333333333333</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="X11" t="n">
-        <v>8.833333333333334</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.83333333333333</v>
+        <v>21.71428571428572</v>
       </c>
       <c r="Z11" t="n">
-        <v>72.66666666666667</v>
+        <v>73.71428571428571</v>
       </c>
     </row>
     <row r="12">
@@ -1556,79 +1556,79 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.666666666666667</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D14" t="n">
-        <v>58.83333333333334</v>
+        <v>61</v>
       </c>
       <c r="E14" t="n">
-        <v>591.3333333333334</v>
+        <v>613.8571428571429</v>
       </c>
       <c r="F14" t="n">
-        <v>508.3333333333333</v>
+        <v>527.7142857142857</v>
       </c>
       <c r="G14" t="n">
-        <v>22.16666666666667</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="I14" t="n">
-        <v>15.16666666666667</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>32.66666666666666</v>
+        <v>30.57142857142857</v>
       </c>
       <c r="K14" t="n">
-        <v>2.833333333333333</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="L14" t="n">
-        <v>15.33333333333333</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P14" t="n">
-        <v>6.5</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.833333333333333</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="R14" t="n">
-        <v>18.16666666666667</v>
+        <v>20.71428571428572</v>
       </c>
       <c r="S14" t="n">
-        <v>700.5</v>
+        <v>718.2857142857143</v>
       </c>
       <c r="T14" t="n">
-        <v>15.5</v>
+        <v>14.71428571428571</v>
       </c>
       <c r="U14" t="n">
-        <v>7.166666666666667</v>
+        <v>7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.83333333333333</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
-        <v>2.5</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="X14" t="n">
-        <v>5.666666666666667</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>22.71428571428572</v>
       </c>
       <c r="Z14" t="n">
-        <v>52.83333333333334</v>
+        <v>54.14285714285715</v>
       </c>
     </row>
     <row r="15">
@@ -1884,79 +1884,79 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.666666666666667</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>46.16666666666666</v>
+        <v>46.14285714285715</v>
       </c>
       <c r="E18" t="n">
-        <v>433.5</v>
+        <v>434.8571428571428</v>
       </c>
       <c r="F18" t="n">
-        <v>345</v>
+        <v>347.5714285714286</v>
       </c>
       <c r="G18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>3.833333333333333</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="I18" t="n">
-        <v>7.666666666666667</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="J18" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K18" t="n">
-        <v>2.833333333333333</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>18</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="M18" t="n">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O18" t="n">
-        <v>2.833333333333333</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="P18" t="n">
-        <v>11</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="R18" t="n">
-        <v>11.66666666666667</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="S18" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="T18" t="n">
-        <v>10.16666666666667</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="U18" t="n">
-        <v>7.166666666666667</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="V18" t="n">
-        <v>10.83333333333333</v>
+        <v>10.42857142857143</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>10.14285714285714</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.33333333333333</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="Z18" t="n">
-        <v>71.66666666666667</v>
+        <v>70.71428571428571</v>
       </c>
     </row>
     <row r="19">
@@ -1966,79 +1966,79 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.666666666666667</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="C19" t="n">
-        <v>1.5</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="D19" t="n">
-        <v>47.5</v>
+        <v>47.71428571428572</v>
       </c>
       <c r="E19" t="n">
-        <v>418.6666666666667</v>
+        <v>425.8571428571428</v>
       </c>
       <c r="F19" t="n">
-        <v>301</v>
+        <v>306.8571428571428</v>
       </c>
       <c r="G19" t="n">
-        <v>10.16666666666667</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="H19" t="n">
-        <v>3.833333333333333</v>
+        <v>4.142857142857143</v>
       </c>
       <c r="I19" t="n">
-        <v>6.333333333333333</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="J19" t="n">
-        <v>37</v>
+        <v>35.85714285714285</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="L19" t="n">
-        <v>25.16666666666667</v>
+        <v>24</v>
       </c>
       <c r="M19" t="n">
-        <v>3.166666666666667</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="O19" t="n">
-        <v>3.333333333333333</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="P19" t="n">
-        <v>15.33333333333333</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.833333333333333</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="R19" t="n">
-        <v>19</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="S19" t="n">
-        <v>538.1666666666666</v>
+        <v>544.5714285714286</v>
       </c>
       <c r="T19" t="n">
-        <v>17</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="U19" t="n">
-        <v>9.333333333333334</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="V19" t="n">
-        <v>13.83333333333333</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="W19" t="n">
-        <v>2.5</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.5</v>
+        <v>24.85714285714286</v>
       </c>
       <c r="Z19" t="n">
-        <v>74.16666666666667</v>
+        <v>73.85714285714286</v>
       </c>
     </row>
     <row r="20">
@@ -2048,79 +2048,79 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D20" t="n">
-        <v>55.5</v>
+        <v>54.85714285714285</v>
       </c>
       <c r="E20" t="n">
-        <v>512.1666666666666</v>
+        <v>507.8571428571428</v>
       </c>
       <c r="F20" t="n">
-        <v>417.6666666666667</v>
+        <v>410.2857142857143</v>
       </c>
       <c r="G20" t="n">
-        <v>12.83333333333333</v>
+        <v>12.14285714285714</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="I20" t="n">
-        <v>9.333333333333334</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="J20" t="n">
-        <v>28.5</v>
+        <v>33.42857142857143</v>
       </c>
       <c r="K20" t="n">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>12.16666666666667</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.5</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="P20" t="n">
-        <v>12.83333333333333</v>
+        <v>13</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.833333333333333</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="R20" t="n">
-        <v>17.66666666666667</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="S20" t="n">
-        <v>611</v>
+        <v>607.1428571428571</v>
       </c>
       <c r="T20" t="n">
-        <v>11.16666666666667</v>
+        <v>11.71428571428571</v>
       </c>
       <c r="U20" t="n">
-        <v>8.666666666666666</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="V20" t="n">
-        <v>16</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="W20" t="n">
-        <v>2.5</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="X20" t="n">
-        <v>5</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.16666666666667</v>
+        <v>21.57142857142857</v>
       </c>
       <c r="Z20" t="n">
-        <v>69.83333333333333</v>
+        <v>69.85714285714286</v>
       </c>
     </row>
     <row r="21">
